--- a/public/excel/query/List-country-and-city-names-whose-PM-2.5-values-are-greater-than-50-in-2015.xlsx
+++ b/public/excel/query/List-country-and-city-names-whose-PM-2.5-values-are-greater-than-50-in-2015.xlsx
@@ -19,21 +19,324 @@
     <t>CITY</t>
   </si>
   <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barisal</t>
+  </si>
+  <si>
+    <t>Chittagong</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Gazipur</t>
+  </si>
+  <si>
+    <t>Khulna</t>
+  </si>
+  <si>
+    <t>Narayangonj</t>
+  </si>
+  <si>
+    <t>Sylhet</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Pasakha</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
+    <t>Anshan</t>
+  </si>
+  <si>
+    <t>Baoding</t>
+  </si>
+  <si>
+    <t>Baoji</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Benxi</t>
+  </si>
+  <si>
+    <t>Binzhou</t>
+  </si>
+  <si>
+    <t>Cangzhou</t>
+  </si>
+  <si>
+    <t>Changchun</t>
+  </si>
+  <si>
+    <t>Changde</t>
+  </si>
+  <si>
+    <t>Changsha</t>
+  </si>
+  <si>
+    <t>Changzhou</t>
+  </si>
+  <si>
     <t>Chengdu</t>
   </si>
   <si>
+    <t>Chongqing</t>
+  </si>
+  <si>
+    <t>Deyang</t>
+  </si>
+  <si>
+    <t>Dezhou</t>
+  </si>
+  <si>
+    <t>Dongying</t>
+  </si>
+  <si>
+    <t>Fushun</t>
+  </si>
+  <si>
+    <t>Guilin</t>
+  </si>
+  <si>
+    <t>Handan</t>
+  </si>
+  <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
+    <t>Harbin</t>
+  </si>
+  <si>
+    <t>Hefei</t>
+  </si>
+  <si>
     <t>Hengshui</t>
   </si>
   <si>
+    <t>Heze</t>
+  </si>
+  <si>
+    <t>Huai'an</t>
+  </si>
+  <si>
+    <t>Huludao</t>
+  </si>
+  <si>
+    <t>Huzhou</t>
+  </si>
+  <si>
+    <t>Ji'ning</t>
+  </si>
+  <si>
+    <t>Jiaozuo</t>
+  </si>
+  <si>
+    <t>Jiaxing</t>
+  </si>
+  <si>
+    <t>Jilin</t>
+  </si>
+  <si>
+    <t>Jinan</t>
+  </si>
+  <si>
+    <t>Jingzhou</t>
+  </si>
+  <si>
+    <t>Jinhua</t>
+  </si>
+  <si>
+    <t>Jinzhou</t>
+  </si>
+  <si>
+    <t>Laiwu</t>
+  </si>
+  <si>
+    <t>Langfang</t>
+  </si>
+  <si>
+    <t>Lanzhou</t>
+  </si>
+  <si>
     <t>Lianyungang</t>
   </si>
   <si>
+    <t>Liaocheng</t>
+  </si>
+  <si>
+    <t>Linfen</t>
+  </si>
+  <si>
+    <t>Luzhou</t>
+  </si>
+  <si>
+    <t>Ma'anshan</t>
+  </si>
+  <si>
+    <t>Nanjing</t>
+  </si>
+  <si>
+    <t>Nantong</t>
+  </si>
+  <si>
+    <t>Qingdao</t>
+  </si>
+  <si>
+    <t>Rizhao</t>
+  </si>
+  <si>
+    <t>Sanmenxia</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Shaoxing</t>
+  </si>
+  <si>
+    <t>Shenyang</t>
+  </si>
+  <si>
+    <t>Shijiazhuang</t>
+  </si>
+  <si>
+    <t>Suqian</t>
+  </si>
+  <si>
+    <t>Suzhou</t>
+  </si>
+  <si>
+    <t>Tai'an</t>
+  </si>
+  <si>
+    <t>Taiyuan</t>
+  </si>
+  <si>
+    <t>Taizhou(Jiangsu Province)</t>
+  </si>
+  <si>
+    <t>Tangshan</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+  </si>
+  <si>
+    <t>Tongchuan</t>
+  </si>
+  <si>
+    <t>Urumqi</t>
+  </si>
+  <si>
+    <t>Wei'nan</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>Wuhu</t>
+  </si>
+  <si>
+    <t>Wuxi</t>
+  </si>
+  <si>
+    <t>Xi'an</t>
+  </si>
+  <si>
+    <t>Xiangtan</t>
+  </si>
+  <si>
+    <t>Xianyang</t>
+  </si>
+  <si>
+    <t>Xingtai</t>
+  </si>
+  <si>
+    <t>Xuzhou</t>
+  </si>
+  <si>
+    <t>Yangzhou</t>
+  </si>
+  <si>
+    <t>Yibin</t>
+  </si>
+  <si>
+    <t>Yinchuan</t>
+  </si>
+  <si>
+    <t>Zaozhuang</t>
+  </si>
+  <si>
+    <t>Zhangjiajie</t>
+  </si>
+  <si>
+    <t>Zhengzhou</t>
+  </si>
+  <si>
+    <t>Zhenjiang</t>
+  </si>
+  <si>
+    <t>Zhuzhou</t>
+  </si>
+  <si>
+    <t>Zigong</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Delta Region</t>
+  </si>
+  <si>
+    <t>Greater Cairo</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Faridabad</t>
+  </si>
+  <si>
+    <t>Guwahati</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Muzaffarpur</t>
+  </si>
+  <si>
     <t>Panchkula</t>
   </si>
   <si>
@@ -55,279 +358,6 @@
     <t>Baghdad</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Accra</t>
-  </si>
-  <si>
-    <t>Agra</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Faridabad</t>
-  </si>
-  <si>
-    <t>Guwahati</t>
-  </si>
-  <si>
-    <t>Kanpur</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Lucknow</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Muzaffarpur</t>
-  </si>
-  <si>
-    <t>Zhengzhou</t>
-  </si>
-  <si>
-    <t>Zhenjiang</t>
-  </si>
-  <si>
-    <t>Zhuzhou</t>
-  </si>
-  <si>
-    <t>Zigong</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Delta Region</t>
-  </si>
-  <si>
-    <t>Greater Cairo</t>
-  </si>
-  <si>
-    <t>Anshan</t>
-  </si>
-  <si>
-    <t>Baoding</t>
-  </si>
-  <si>
-    <t>Baoji</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Benxi</t>
-  </si>
-  <si>
-    <t>Binzhou</t>
-  </si>
-  <si>
-    <t>Cangzhou</t>
-  </si>
-  <si>
-    <t>Changchun</t>
-  </si>
-  <si>
-    <t>Changde</t>
-  </si>
-  <si>
-    <t>Changsha</t>
-  </si>
-  <si>
-    <t>Changzhou</t>
-  </si>
-  <si>
-    <t>Chongqing</t>
-  </si>
-  <si>
-    <t>Deyang</t>
-  </si>
-  <si>
-    <t>Dezhou</t>
-  </si>
-  <si>
-    <t>Dongying</t>
-  </si>
-  <si>
-    <t>Fushun</t>
-  </si>
-  <si>
-    <t>Guilin</t>
-  </si>
-  <si>
-    <t>Handan</t>
-  </si>
-  <si>
-    <t>Hangzhou</t>
-  </si>
-  <si>
-    <t>Harbin</t>
-  </si>
-  <si>
-    <t>Hefei</t>
-  </si>
-  <si>
-    <t>Heze</t>
-  </si>
-  <si>
-    <t>Huai'an</t>
-  </si>
-  <si>
-    <t>Huludao</t>
-  </si>
-  <si>
-    <t>Huzhou</t>
-  </si>
-  <si>
-    <t>Ji'ning</t>
-  </si>
-  <si>
-    <t>Jiaozuo</t>
-  </si>
-  <si>
-    <t>Jiaxing</t>
-  </si>
-  <si>
-    <t>Jilin</t>
-  </si>
-  <si>
-    <t>Jinan</t>
-  </si>
-  <si>
-    <t>Jingzhou</t>
-  </si>
-  <si>
-    <t>Jinhua</t>
-  </si>
-  <si>
-    <t>Jinzhou</t>
-  </si>
-  <si>
-    <t>Laiwu</t>
-  </si>
-  <si>
-    <t>Langfang</t>
-  </si>
-  <si>
-    <t>Lanzhou</t>
-  </si>
-  <si>
-    <t>Liaocheng</t>
-  </si>
-  <si>
-    <t>Linfen</t>
-  </si>
-  <si>
-    <t>Luzhou</t>
-  </si>
-  <si>
-    <t>Ma'anshan</t>
-  </si>
-  <si>
-    <t>Nanjing</t>
-  </si>
-  <si>
-    <t>Nantong</t>
-  </si>
-  <si>
-    <t>Qingdao</t>
-  </si>
-  <si>
-    <t>Rizhao</t>
-  </si>
-  <si>
-    <t>Sanmenxia</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Shaoxing</t>
-  </si>
-  <si>
-    <t>Shenyang</t>
-  </si>
-  <si>
-    <t>Shijiazhuang</t>
-  </si>
-  <si>
-    <t>Suqian</t>
-  </si>
-  <si>
-    <t>Suzhou</t>
-  </si>
-  <si>
-    <t>Tai'an</t>
-  </si>
-  <si>
-    <t>Taiyuan</t>
-  </si>
-  <si>
-    <t>Taizhou(Jiangsu Province)</t>
-  </si>
-  <si>
-    <t>Tangshan</t>
-  </si>
-  <si>
-    <t>Tianjin</t>
-  </si>
-  <si>
-    <t>Tongchuan</t>
-  </si>
-  <si>
-    <t>Urumqi</t>
-  </si>
-  <si>
-    <t>Wei'nan</t>
-  </si>
-  <si>
-    <t>Wuhan</t>
-  </si>
-  <si>
-    <t>Wuhu</t>
-  </si>
-  <si>
-    <t>Wuxi</t>
-  </si>
-  <si>
-    <t>Xi'an</t>
-  </si>
-  <si>
-    <t>Xiangtan</t>
-  </si>
-  <si>
-    <t>Xianyang</t>
-  </si>
-  <si>
-    <t>Xingtai</t>
-  </si>
-  <si>
-    <t>Xuzhou</t>
-  </si>
-  <si>
-    <t>Yangzhou</t>
-  </si>
-  <si>
-    <t>Yibin</t>
-  </si>
-  <si>
-    <t>Yinchuan</t>
-  </si>
-  <si>
-    <t>Zaozhuang</t>
-  </si>
-  <si>
-    <t>Zhangjiajie</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -407,36 +437,6 @@
   </si>
   <si>
     <t>Al Gharbia</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barisal</t>
-  </si>
-  <si>
-    <t>Chittagong</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Gazipur</t>
-  </si>
-  <si>
-    <t>Khulna</t>
-  </si>
-  <si>
-    <t>Narayangonj</t>
-  </si>
-  <si>
-    <t>Sylhet</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Pasakha</t>
   </si>
 </sst>
 </file>
@@ -857,39 +857,39 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -905,647 +905,647 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
@@ -1553,71 +1553,71 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
@@ -1625,55 +1625,55 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
         <v>107</v>
-      </c>
-      <c r="B101" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
@@ -1681,18 +1681,18 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,12 +1700,12 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
         <v>120</v>
@@ -1713,79 +1713,79 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
         <v>121</v>
-      </c>
-      <c r="B112" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
         <v>123</v>
-      </c>
-      <c r="B114" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
         <v>128</v>
-      </c>
-      <c r="B118" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" t="s">
         <v>132</v>
-      </c>
-      <c r="B120" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
         <v>134</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
         <v>135</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
         <v>136</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
         <v>137</v>
@@ -1817,23 +1817,23 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s">
         <v>141</v>
